--- a/biology/Zoologie/Diaglena_spatulata/Diaglena_spatulata.xlsx
+++ b/biology/Zoologie/Diaglena_spatulata/Diaglena_spatulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Triprion sapatulatus, anciennement Diaglena spatulata, alors unique représentant du genre Diaglena, est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Triprion sapatulatus, anciennement Diaglena spatulata, alors unique représentant du genre Diaglena, est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre le long des côtes du Pacifique dans les États du Sinaloa, de Nayarit, du Jalisco, de Colima, du Michoacán, du Guerrero et d'Oaxaca[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre le long des côtes du Pacifique dans les États du Sinaloa, de Nayarit, du Jalisco, de Colima, du Michoacán, du Guerrero et d'Oaxaca,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Duellman, 1970 deux sous-espèces peuvent être reconnues[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Duellman, 1970 deux sous-espèces peuvent être reconnues :
 Diaglena spatulata reticulata Taylor, 1942
 Diaglena spatulata spatulata (Günther, 1882)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1887 : Catalogue of batrachians and reptiles of Central America and Mexico. Bulletin of the United States National Museum, no 32, p. 1-98 (texte intégral).
 Günther, 1882 : Notice of a second Species of Triprion. Annals and Magazine of Natural History, sér. 5, vol. 10, p. 279 (texte intégral).
